--- a/AUC_ROC_results/auc/AUC_AD_GOF_ALL_performance.xlsx
+++ b/AUC_ROC_results/auc/AUC_AD_GOF_ALL_performance.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u244834_bcm_edu/Documents/BCM/Projects/Autosomal Dominant Predictor of IRDs/manuscript/GitHub/AUC_ROC_results/auc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_558941FEF613C8264F2C4CB51593F4494B022A1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B92D48A4-605D-4DE4-BEF4-FFF021812BDA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="38280" yWindow="7200" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -145,8 +151,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,13 +215,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -253,7 +267,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -287,6 +301,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -321,9 +336,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -496,14 +512,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:C40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,205 +536,205 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.9854025900900901</v>
+        <v>0.98540259009009012</v>
       </c>
       <c r="C2">
-        <v>99.08015768725362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>99.080157687253617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.9839496154117564</v>
+        <v>0.98394961541175641</v>
       </c>
       <c r="C3">
-        <v>98.94875164257556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>98.948751642575559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.9827041140357067</v>
+        <v>0.98270411403570668</v>
       </c>
       <c r="C4">
-        <v>98.94875164257556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>98.948751642575559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.9722198761261261</v>
+        <v>0.97221987612612615</v>
       </c>
       <c r="C5">
-        <v>99.08015768725362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>99.080157687253617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.9489477759009008</v>
+        <v>0.94894777590090085</v>
       </c>
       <c r="C6">
-        <v>99.08015768725362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>99.080157687253617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.9451379578011431</v>
+        <v>0.94513795780114307</v>
       </c>
       <c r="C7">
-        <v>98.94875164257556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>98.948751642575559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.9278025655326269</v>
+        <v>0.92780256553262686</v>
       </c>
       <c r="C8">
-        <v>86.2023653088042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>86.202365308804204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.9235128078470115</v>
+        <v>0.92351280784701151</v>
       </c>
       <c r="C9">
-        <v>98.94875164257556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>98.948751642575559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.9150351721584599</v>
+        <v>0.91503517215845986</v>
       </c>
       <c r="C10">
-        <v>96.58344283837057</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>96.583442838370573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.9125105574324325</v>
+        <v>0.91251055743243248</v>
       </c>
       <c r="C11">
-        <v>99.08015768725362</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>99.080157687253617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.9086641328828829</v>
+        <v>0.90866413288288295</v>
       </c>
       <c r="C12">
-        <v>99.08015768725362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>99.080157687253617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.9046175604591921</v>
+        <v>0.90461756045919206</v>
       </c>
       <c r="C13">
-        <v>91.45860709592641</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>91.458607095926411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.8933699769523269</v>
+        <v>0.89336997695232689</v>
       </c>
       <c r="C14">
-        <v>97.50328515111694</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>97.503285151116941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.8875332146949123</v>
+        <v>0.88753321469491231</v>
       </c>
       <c r="C15">
-        <v>92.50985545335085</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>92.509855453350852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.8874946953513295</v>
+        <v>0.88749469535132952</v>
       </c>
       <c r="C16">
-        <v>98.02890932982918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>98.028909329829176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.8868438538205982</v>
+        <v>0.88684385382059816</v>
       </c>
       <c r="C17">
-        <v>68.19973718791064</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>68.199737187910642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.8841131127174159</v>
+        <v>0.88411311271741588</v>
       </c>
       <c r="C18">
-        <v>70.56504599211564</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>70.565045992115643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.8788797522193383</v>
+        <v>0.87887975221933834</v>
       </c>
       <c r="C19">
-        <v>97.50328515111694</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>97.503285151116941</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -720,54 +742,54 @@
         <v>0.8683616494876184</v>
       </c>
       <c r="C20">
-        <v>96.1892247043364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>96.189224704336397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.865427356882377</v>
+        <v>0.86542735688237704</v>
       </c>
       <c r="C21">
-        <v>98.02890932982918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>98.028909329829176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.8594251030691709</v>
+        <v>0.85942510306917086</v>
       </c>
       <c r="C22">
-        <v>95.13797634691196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>95.137976346911955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.8543542577823515</v>
+        <v>0.85435425778235152</v>
       </c>
       <c r="C23">
-        <v>80.28909329829173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>80.289093298291732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.8478499197502171</v>
+        <v>0.84784991975021706</v>
       </c>
       <c r="C24">
-        <v>88.83048620236531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>88.830486202365307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -775,172 +797,172 @@
         <v>0.8397681866047344</v>
       </c>
       <c r="C25">
-        <v>97.89750328515112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>97.897503285151117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>0.8324500281531532</v>
+        <v>0.83245002815315317</v>
       </c>
       <c r="C26">
-        <v>99.08015768725362</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>99.080157687253617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>0.8317254141853551</v>
+        <v>0.83172541418535506</v>
       </c>
       <c r="C27">
-        <v>88.83048620236531</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>88.830486202365307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>0.8298790894101993</v>
+        <v>0.82987908941019928</v>
       </c>
       <c r="C28">
-        <v>97.76609724047306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>97.766097240473059</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>0.8235212961652753</v>
+        <v>0.82352129616527525</v>
       </c>
       <c r="C29">
         <v>98.8173455978975</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>0.8125668637387388</v>
+        <v>0.81256686373873876</v>
       </c>
       <c r="C30">
-        <v>99.08015768725362</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>99.080157687253617</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
-        <v>0.7988422015765766</v>
+        <v>0.79884220157657659</v>
       </c>
       <c r="C31">
-        <v>99.08015768725362</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>99.080157687253617</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>0.7680300391407757</v>
+        <v>0.76803003914077572</v>
       </c>
       <c r="C32">
-        <v>86.07095926412615</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>86.070959264126145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
-        <v>0.7632847691441442</v>
+        <v>0.76328476914414423</v>
       </c>
       <c r="C33">
-        <v>99.08015768725362</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>99.080157687253617</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
-        <v>0.7610853040540541</v>
+        <v>0.76108530405405406</v>
       </c>
       <c r="C34">
-        <v>99.08015768725362</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>99.080157687253617</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
-        <v>0.7603357263513514</v>
+        <v>0.76033572635135138</v>
       </c>
       <c r="C35">
-        <v>99.08015768725362</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>99.080157687253617</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
-        <v>0.7528469876126126</v>
+        <v>0.75284698761261259</v>
       </c>
       <c r="C36">
-        <v>99.08015768725362</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>99.080157687253617</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
-        <v>0.7321649774774773</v>
+        <v>0.73216497747747733</v>
       </c>
       <c r="C37">
-        <v>99.08015768725362</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>99.080157687253617</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
-        <v>0.7063027871621622</v>
+        <v>0.70630278716216222</v>
       </c>
       <c r="C38">
-        <v>99.08015768725362</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>99.080157687253617</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
-        <v>0.6893616272522523</v>
+        <v>0.68936162725225225</v>
       </c>
       <c r="C39">
-        <v>99.08015768725362</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>99.080157687253617</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
-        <v>0.4427277762193499</v>
+        <v>0.44272777621934989</v>
       </c>
       <c r="C40">
-        <v>98.02890932982918</v>
+        <v>98.028909329829176</v>
       </c>
     </row>
   </sheetData>
